--- a/DataCollection/ExperimentData.xlsx
+++ b/DataCollection/ExperimentData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbywysopal/ResponsiveAR/DataCollection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{07E49B6F-65BC-D247-BEB0-7B58A36CAE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0495529-D3A3-CF4A-BE1B-07D8156E6205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1560" windowWidth="27640" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="1560" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExperimentData" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,41 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$B$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Data!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Data!$C$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$C$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$B$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$B$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$C$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Data!$B$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Data!$B$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1112" uniqueCount="15">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1135" uniqueCount="20">
   <si>
     <t>userID</t>
   </si>
@@ -78,11 +102,26 @@
   <si>
     <t>Weather</t>
   </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STDV</t>
+  </si>
+  <si>
+    <t>STDERR</t>
+  </si>
+  <si>
+    <t>95%CI</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -560,8 +599,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -635,6 +677,284 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Data!$B$7:$C$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1175.6145082995722</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4158.6751934100894</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Data!$B$7:$C$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1175.6145082995722</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4158.6751934100894</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Responsive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6124.7619047619046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8826.7619047619046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56A1-0849-83C5-AEE9E2200658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="644530335"/>
+        <c:axId val="644545167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644530335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644545167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644545167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644530335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -660,17 +980,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
@@ -743,67 +1053,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>54160</c:v>
+                  <c:v>10803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76705</c:v>
+                  <c:v>15321</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85305</c:v>
+                  <c:v>17031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92445</c:v>
+                  <c:v>18449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94660</c:v>
+                  <c:v>18892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100550</c:v>
+                  <c:v>20087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112405</c:v>
+                  <c:v>22452</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112810</c:v>
+                  <c:v>22522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122760</c:v>
+                  <c:v>24510</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124820</c:v>
+                  <c:v>24929</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134000</c:v>
+                  <c:v>26770</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>146545</c:v>
+                  <c:v>27320</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>158655</c:v>
+                  <c:v>29268</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>175605</c:v>
+                  <c:v>31702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>176425</c:v>
+                  <c:v>35084</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>252250</c:v>
+                  <c:v>35255</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>275310</c:v>
+                  <c:v>36142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>290965</c:v>
+                  <c:v>50409</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>305445</c:v>
+                  <c:v>55029</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>332080</c:v>
+                  <c:v>58152</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>544515</c:v>
+                  <c:v>61038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,67 +1147,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>92155</c:v>
+                  <c:v>66382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117875</c:v>
+                  <c:v>108861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119250</c:v>
+                  <c:v>18383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129150</c:v>
+                  <c:v>23518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130955</c:v>
+                  <c:v>23810</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137855</c:v>
+                  <c:v>24712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164275</c:v>
+                  <c:v>25789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>165100</c:v>
+                  <c:v>26141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174095</c:v>
+                  <c:v>27551</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187255</c:v>
+                  <c:v>32826</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194695</c:v>
+                  <c:v>32974</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>215955</c:v>
+                  <c:v>34780</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>244505</c:v>
+                  <c:v>37431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>250285</c:v>
+                  <c:v>38890</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252600</c:v>
+                  <c:v>43152</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>256240</c:v>
+                  <c:v>48873</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>284860</c:v>
+                  <c:v>49997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>285355</c:v>
+                  <c:v>50476</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>346705</c:v>
+                  <c:v>51217</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>448190</c:v>
+                  <c:v>56931</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>644225</c:v>
+                  <c:v>57031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,6 +1994,49 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>348034</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1669</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176203</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F454DE-8CA7-AC47-91A4-4AFB0E570726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1727,231 +2080,264 @@
 <externalLink xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Experiment Data --&gt;"/>
       <sheetName val="ArticleExperimentData"/>
+      <sheetName val="Charts --&gt;"/>
       <sheetName val="Time Bar Chart"/>
       <sheetName val="Time Box and Whisker"/>
-      <sheetName val="DistData"/>
-      <sheetName val="Dist Bar Chart"/>
-      <sheetName val="Dist Box and Whisker"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Demographic Data --&gt;"/>
+      <sheetName val="AR Pre-study Survey"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="2">
           <cell r="D2">
-            <v>54160</v>
+            <v>10803</v>
           </cell>
         </row>
         <row r="3">
           <cell r="D3">
-            <v>76705</v>
+            <v>15321</v>
           </cell>
         </row>
         <row r="4">
           <cell r="D4">
-            <v>85305</v>
+            <v>17031</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>92445</v>
+            <v>18449</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>94660</v>
+            <v>18892</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>100550</v>
+            <v>20087</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>112405</v>
+            <v>22452</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>112810</v>
+            <v>22522</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>122760</v>
+            <v>24510</v>
           </cell>
         </row>
         <row r="11">
           <cell r="D11">
-            <v>124820</v>
+            <v>24929</v>
           </cell>
         </row>
         <row r="12">
           <cell r="D12">
-            <v>134000</v>
+            <v>26770</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>146545</v>
+            <v>27320</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>158655</v>
+            <v>29268</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>175605</v>
+            <v>31702</v>
           </cell>
         </row>
         <row r="16">
           <cell r="D16">
-            <v>176425</v>
+            <v>35084</v>
           </cell>
         </row>
         <row r="17">
           <cell r="D17">
-            <v>252250</v>
+            <v>35255</v>
           </cell>
         </row>
         <row r="18">
           <cell r="D18">
-            <v>275310</v>
+            <v>36142</v>
           </cell>
         </row>
         <row r="19">
           <cell r="D19">
-            <v>290965</v>
+            <v>50409</v>
           </cell>
         </row>
         <row r="20">
           <cell r="D20">
-            <v>305445</v>
+            <v>55029</v>
           </cell>
         </row>
         <row r="21">
           <cell r="D21">
-            <v>332080</v>
+            <v>58152</v>
           </cell>
         </row>
         <row r="22">
           <cell r="D22">
-            <v>544515</v>
+            <v>61038</v>
           </cell>
         </row>
         <row r="23">
           <cell r="D23">
-            <v>92155</v>
+            <v>66382</v>
           </cell>
         </row>
         <row r="24">
           <cell r="D24">
-            <v>117875</v>
+            <v>108861</v>
           </cell>
         </row>
         <row r="25">
           <cell r="D25">
-            <v>119250</v>
+            <v>18383</v>
           </cell>
         </row>
         <row r="26">
           <cell r="D26">
-            <v>129150</v>
+            <v>23518</v>
           </cell>
         </row>
         <row r="27">
           <cell r="D27">
-            <v>130955</v>
+            <v>23810</v>
           </cell>
         </row>
         <row r="28">
           <cell r="D28">
-            <v>137855</v>
+            <v>24712</v>
           </cell>
         </row>
         <row r="29">
           <cell r="D29">
-            <v>164275</v>
+            <v>25789</v>
           </cell>
         </row>
         <row r="30">
           <cell r="D30">
-            <v>165100</v>
+            <v>26141</v>
           </cell>
         </row>
         <row r="31">
           <cell r="D31">
-            <v>174095</v>
+            <v>27551</v>
           </cell>
         </row>
         <row r="32">
           <cell r="D32">
-            <v>187255</v>
+            <v>32826</v>
           </cell>
         </row>
         <row r="33">
           <cell r="D33">
-            <v>194695</v>
+            <v>32974</v>
           </cell>
         </row>
         <row r="34">
           <cell r="D34">
-            <v>215955</v>
+            <v>34780</v>
           </cell>
         </row>
         <row r="35">
           <cell r="D35">
-            <v>244505</v>
+            <v>37431</v>
           </cell>
         </row>
         <row r="36">
           <cell r="D36">
-            <v>250285</v>
+            <v>38890</v>
           </cell>
         </row>
         <row r="37">
           <cell r="D37">
-            <v>252600</v>
+            <v>43152</v>
           </cell>
         </row>
         <row r="38">
           <cell r="D38">
-            <v>256240</v>
+            <v>48873</v>
           </cell>
         </row>
         <row r="39">
           <cell r="D39">
-            <v>284860</v>
+            <v>49997</v>
           </cell>
         </row>
         <row r="40">
           <cell r="D40">
-            <v>285355</v>
+            <v>50476</v>
           </cell>
         </row>
         <row r="41">
           <cell r="D41">
-            <v>346705</v>
+            <v>51217</v>
           </cell>
         </row>
         <row r="42">
           <cell r="D42">
-            <v>448190</v>
+            <v>56931</v>
           </cell>
         </row>
         <row r="43">
           <cell r="D43">
-            <v>644225</v>
+            <v>57031</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Avg Dist R</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Avg Dist S</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.6262732842196661</v>
+          </cell>
+          <cell r="C3">
+            <v>0.61211362547804815</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>9.2617466269498301E-3</v>
+          </cell>
+          <cell r="C5">
+            <v>1.2993644125138816E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2253,10 +2639,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection sqref="A1:K169"/>
     </sheetView>
   </sheetViews>
@@ -15530,10 +15916,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -15542,21 +15928,180 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(ExperimentData!$E$2:$E$22)</f>
+        <v>6124.7619047619046</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(ExperimentData!$E$23:$E$43)</f>
+        <v>8826.7619047619046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f>STDEV(ExperimentData!$E$2:$E$22)</f>
+        <v>2748.6441185566732</v>
+      </c>
+      <c r="C5">
+        <f>STDEV(ExperimentData!$E$23:$E$43)</f>
+        <v>9723.1856451718631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <f>B5/SQRT(COUNT(ExperimentData!$E$2:$E$22))</f>
+        <v>599.80332056100622</v>
+      </c>
+      <c r="C6">
+        <f>C5/SQRT(COUNT(ExperimentData!$E$23:$E$43))</f>
+        <v>2121.7730578622904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <f>1.96*B6</f>
+        <v>1175.6145082995722</v>
+      </c>
+      <c r="C7">
+        <f>1.96*C6</f>
+        <v>4158.6751934100894</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20979,7 +21524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
